--- a/아고다 잡스킬.xlsx
+++ b/아고다 잡스킬.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1212c6fcd2f37e3e/바탕 화면/Programming/아고다 사이트/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1212c6fcd2f37e3e/바탕 화면/Programming/agoda-cid-converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_EFBDEAAFFC0B18266DEFCACFC90935058F1573E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A3E166F-9EC0-491F-A1C1-BE32799EE41D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_EFBDEAAFFC0B18266DEFCACFC90935058F1573E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB79AB98-B032-415A-BD34-B6F325588BFF}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21503" yWindow="-532" windowWidth="22395" windowHeight="14055" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="처리용" sheetId="1" r:id="rId1"/>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -1292,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4">
-        <v>1760133</v>
+        <v>1748498</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1590,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/아고다 잡스킬.xlsx
+++ b/아고다 잡스킬.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1212c6fcd2f37e3e/바탕 화면/Programming/agoda-cid-converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_EFBDEAAFFC0B18266DEFCACFC90935058F1573E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB79AB98-B032-415A-BD34-B6F325588BFF}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_EFBDEAAFFC0B18266DEFCACFC90935058F1573E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{637332DB-2724-43C8-AA4F-CBF0FE423695}"/>
   <bookViews>
     <workbookView xWindow="21503" yWindow="-532" windowWidth="22395" windowHeight="14055" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>구분</t>
   </si>
@@ -66,9 +66,6 @@
     <t>네이버</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>우리</t>
   </si>
   <si>
@@ -93,13 +90,7 @@
     <t>마스터카드</t>
   </si>
   <si>
-    <t>유니온페이(은련)</t>
-  </si>
-  <si>
     <t>비자</t>
-  </si>
-  <si>
-    <t>?(출처불분명)</t>
   </si>
   <si>
     <t>직링크</t>
@@ -164,6 +155,44 @@
   </si>
   <si>
     <t>https://www.agoda.com/ko-kr/koreanair</t>
+  </si>
+  <si>
+    <t>우리(마스터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.agoda.com/ko-kr/airseoul</t>
+  </si>
+  <si>
+    <t>https://www.agoda.com/ko-kr/wooricardmaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한항공(적립)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니온페이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아나항공(적립)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아나항공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.agoda.com/ko-kr/flyasiana</t>
   </si>
 </sst>
 </file>
@@ -230,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -272,66 +301,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -428,6 +397,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -437,30 +421,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -472,22 +456,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -499,29 +467,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,122 +1026,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="25.75" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9" style="19" customWidth="1"/>
+    <col min="1" max="1" width="25.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="18"/>
+      <c r="A1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="156" customHeight="1">
-      <c r="A2" s="15"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4">
         <v>1833981</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4">
         <v>1917614</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="4">
         <v>1829968</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -1174,18 +1150,18 @@
       <c r="B9" s="4">
         <v>1908612</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -1194,18 +1170,18 @@
       <c r="B10" s="4">
         <v>1922868</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -1214,18 +1190,18 @@
       <c r="B11" s="4">
         <v>1922887</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -1234,148 +1210,148 @@
       <c r="B12" s="4">
         <v>1891504</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4">
         <v>1563295</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4">
         <v>1654104</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4">
-        <v>1748498</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+        <v>1932810</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>1917257</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+        <v>1748498</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4">
-        <v>1760133</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+        <v>1917257</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
-        <v>1917334</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+        <v>1760133</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4">
-        <v>1729471</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+        <v>1917334</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -1389,13 +1365,13 @@
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4">
-        <v>1845109</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+        <v>1729471</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -1409,13 +1385,13 @@
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4">
-        <v>1889572</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+        <v>1845109</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -1429,13 +1405,13 @@
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4">
-        <v>1801110</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+        <v>1889572</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
@@ -1449,13 +1425,13 @@
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4">
-        <v>1889319</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+        <v>1801110</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
@@ -1469,13 +1445,13 @@
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>1633981</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+        <v>1889319</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
@@ -1487,15 +1463,15 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1769533</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1904827</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -1507,77 +1483,117 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1806212</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1800120</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1588,16 +1604,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.3125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="39.0625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="16.3125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="46.875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1605,120 +1621,145 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B2" r:id="rId12" xr:uid="{43698189-ECF3-4D88-B353-BAC7203351EE}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{43698189-ECF3-4D88-B353-BAC7203351EE}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{D1375C79-7A02-407A-8A17-CD1F3010EBA6}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1732,12 +1773,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="96.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="96.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="225.4" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>36</v>
+      <c r="A1" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
